--- a/MTP_TEST_SHEET/test_cases_1-10.xlsx
+++ b/MTP_TEST_SHEET/test_cases_1-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792273E2-59C1-44F4-A757-61F8B4273C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D846B-21EA-470E-A995-842B3BDAD309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -36,65 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>suffixUrl</t>
   </si>
   <si>
-    <t>/target/ENSG00000089234/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000109323/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000118058/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000122025/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000132563/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000133703/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000141179/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000141510/associations</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000146648/associations</t>
-  </si>
-  <si>
-    <t>target_association_BRAP</t>
-  </si>
-  <si>
-    <t>target_association_MANBA</t>
-  </si>
-  <si>
-    <t>target_association_KMT2A</t>
-  </si>
-  <si>
-    <t>target_association_FLT3</t>
-  </si>
-  <si>
-    <t>target_association_REEP2</t>
-  </si>
-  <si>
-    <t>target_association_KRAS</t>
-  </si>
-  <si>
-    <t>target_association_PCTP</t>
-  </si>
-  <si>
-    <t>target_association_TP53</t>
-  </si>
-  <si>
-    <t>target_association_EGFR</t>
-  </si>
-  <si>
     <t>host</t>
   </si>
   <si>
@@ -105,6 +51,126 @@
   </si>
   <si>
     <t>https://ccdi-opentargets-dev.bento-tools.org</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000147488/associations</t>
+  </si>
+  <si>
+    <t>target_association_ST18</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000157764/associations</t>
+  </si>
+  <si>
+    <t>target_association_BRAF</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000171094/associations</t>
+  </si>
+  <si>
+    <t>target_association_ALK</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000177410/associations</t>
+  </si>
+  <si>
+    <t>target_association_ZFAS1</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000177455/associations</t>
+  </si>
+  <si>
+    <t>target_association_CD19</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000179295/associations</t>
+  </si>
+  <si>
+    <t>target_association_PTPN11</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000205496/associations</t>
+  </si>
+  <si>
+    <t>target_association_OR51A2</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000213281/associations</t>
+  </si>
+  <si>
+    <t>target_association_NRAS</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000258910/associations</t>
+  </si>
+  <si>
+    <t>target_association_LINC01956</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000275954/associations</t>
+  </si>
+  <si>
+    <t>target_association_TBC1D3F</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000284930/associations</t>
+  </si>
+  <si>
+    <t>target_association_ENSG00000284930</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000109321</t>
+  </si>
+  <si>
+    <t>target_profile_AREG</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000118058</t>
+  </si>
+  <si>
+    <t>target_profile_KMT2A</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000122025</t>
+  </si>
+  <si>
+    <t>target_profile_FLT3</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000133703</t>
+  </si>
+  <si>
+    <t>target_profile_KRAS</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000135709</t>
+  </si>
+  <si>
+    <t>target_profile_KIAA0513</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000136531</t>
+  </si>
+  <si>
+    <t>target_profile_SCN2A</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000141510</t>
+  </si>
+  <si>
+    <t>target_profile_TP53</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000146648</t>
+  </si>
+  <si>
+    <t>target_profile_EGFR</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000157764</t>
+  </si>
+  <si>
+    <t>target_profile_BRAF</t>
   </si>
 </sst>
 </file>
@@ -142,12 +208,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -178,12 +250,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -514,151 +587,304 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{87106391-5DAE-4337-A567-FCACF1B2D314}"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{CC880C09-FC07-4A75-B894-B7BAA94B2BD0}"/>
+    <hyperlink ref="A2:A21" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{41038D6D-0EA5-4B68-95CA-BE401BC425C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/MTP_TEST_SHEET/test_cases_1-10.xlsx
+++ b/MTP_TEST_SHEET/test_cases_1-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D846B-21EA-470E-A995-842B3BDAD309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9683E881-CEC3-4DAE-878A-2EFF19BE691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>suffixUrl</t>
   </si>
@@ -53,72 +53,12 @@
     <t>https://ccdi-opentargets-dev.bento-tools.org</t>
   </si>
   <si>
-    <t>/target/ENSG00000147488/associations</t>
-  </si>
-  <si>
-    <t>target_association_ST18</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000157764/associations</t>
-  </si>
-  <si>
-    <t>target_association_BRAF</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000171094/associations</t>
-  </si>
-  <si>
-    <t>target_association_ALK</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000177410/associations</t>
-  </si>
-  <si>
-    <t>target_association_ZFAS1</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000177455/associations</t>
-  </si>
-  <si>
-    <t>target_association_CD19</t>
-  </si>
-  <si>
     <t>/target/ENSG00000179295/associations</t>
   </si>
   <si>
     <t>target_association_PTPN11</t>
   </si>
   <si>
-    <t>/target/ENSG00000205496/associations</t>
-  </si>
-  <si>
-    <t>target_association_OR51A2</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000213281/associations</t>
-  </si>
-  <si>
-    <t>target_association_NRAS</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000258910/associations</t>
-  </si>
-  <si>
-    <t>target_association_LINC01956</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000275954/associations</t>
-  </si>
-  <si>
-    <t>target_association_TBC1D3F</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000284930/associations</t>
-  </si>
-  <si>
-    <t>target_association_ENSG00000284930</t>
-  </si>
-  <si>
     <t>/target/ENSG00000109321</t>
   </si>
   <si>
@@ -165,19 +105,13 @@
   </si>
   <si>
     <t>target_profile_EGFR</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000157764</t>
-  </si>
-  <si>
-    <t>target_profile_BRAF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +137,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,13 +191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -604,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -618,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -632,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -646,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -660,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -674,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -688,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -702,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -716,173 +658,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2:A21" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{41038D6D-0EA5-4B68-95CA-BE401BC425C3}"/>
+    <hyperlink ref="A2:A9" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{41038D6D-0EA5-4B68-95CA-BE401BC425C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/MTP_TEST_SHEET/test_cases_1-10.xlsx
+++ b/MTP_TEST_SHEET/test_cases_1-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9683E881-CEC3-4DAE-878A-2EFF19BE691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E1DC29-537F-4F8D-AE7C-C1A3B8A63EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>suffixUrl</t>
   </si>
@@ -53,65 +53,131 @@
     <t>https://ccdi-opentargets-dev.bento-tools.org</t>
   </si>
   <si>
-    <t>/target/ENSG00000179295/associations</t>
-  </si>
-  <si>
-    <t>target_association_PTPN11</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000109321</t>
-  </si>
-  <si>
-    <t>target_profile_AREG</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000118058</t>
-  </si>
-  <si>
-    <t>target_profile_KMT2A</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000122025</t>
-  </si>
-  <si>
-    <t>target_profile_FLT3</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000133703</t>
-  </si>
-  <si>
-    <t>target_profile_KRAS</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000135709</t>
-  </si>
-  <si>
-    <t>target_profile_KIAA0513</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000136531</t>
-  </si>
-  <si>
-    <t>target_profile_SCN2A</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000141510</t>
-  </si>
-  <si>
-    <t>target_profile_TP53</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000146648</t>
-  </si>
-  <si>
-    <t>target_profile_EGFR</t>
+    <t>/target/ENSG00000169682</t>
+  </si>
+  <si>
+    <t>target_profile_SPNS1</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000171094</t>
+  </si>
+  <si>
+    <t>target_profile_ALK</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000171853</t>
+  </si>
+  <si>
+    <t>target_profile_TRAPPC12</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000177455</t>
+  </si>
+  <si>
+    <t>target_profile_CD19</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000179295</t>
+  </si>
+  <si>
+    <t>target_profile_PTPN11</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000185607</t>
+  </si>
+  <si>
+    <t>target_profile_ACTBP7</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000186056</t>
+  </si>
+  <si>
+    <t>target_profile_MATN1-AS1</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000199038</t>
+  </si>
+  <si>
+    <t>target_profile_MIR210</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000213281</t>
+  </si>
+  <si>
+    <t>target_profile_NRAS</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000232860</t>
+  </si>
+  <si>
+    <t>target_profile_SMG7-AS1</t>
+  </si>
+  <si>
+    <t>/target/ENSG00000258148</t>
+  </si>
+  <si>
+    <t>target_profile_ENSG00000258148</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000174/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0000174</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000220/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0000220</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000222/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0000222</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000621/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0000621</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000637/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0000637</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0002939/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0002939</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0005047/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0005047</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0007591/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0007591</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0010227/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_0010227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,13 +207,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -158,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,14 +250,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -546,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -560,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -574,10 +632,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -588,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -602,13 +660,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -616,13 +674,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -630,13 +688,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -644,13 +702,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -658,19 +716,170 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2:A9" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{41038D6D-0EA5-4B68-95CA-BE401BC425C3}"/>
+    <hyperlink ref="A2:A21" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{F612DF97-2925-4AC8-8A7E-0EB2F28BCEFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/MTP_TEST_SHEET/test_cases_1-10.xlsx
+++ b/MTP_TEST_SHEET/test_cases_1-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E1DC29-537F-4F8D-AE7C-C1A3B8A63EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC74CD67-2EBA-4293-A817-17566C06E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>suffixUrl</t>
   </si>
@@ -53,124 +53,154 @@
     <t>https://ccdi-opentargets-dev.bento-tools.org</t>
   </si>
   <si>
-    <t>/target/ENSG00000169682</t>
-  </si>
-  <si>
-    <t>target_profile_SPNS1</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000171094</t>
-  </si>
-  <si>
-    <t>target_profile_ALK</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000171853</t>
-  </si>
-  <si>
-    <t>target_profile_TRAPPC12</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000177455</t>
-  </si>
-  <si>
-    <t>target_profile_CD19</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000179295</t>
-  </si>
-  <si>
-    <t>target_profile_PTPN11</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000185607</t>
-  </si>
-  <si>
-    <t>target_profile_ACTBP7</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000186056</t>
-  </si>
-  <si>
-    <t>target_profile_MATN1-AS1</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000199038</t>
-  </si>
-  <si>
-    <t>target_profile_MIR210</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000213281</t>
-  </si>
-  <si>
-    <t>target_profile_NRAS</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000232860</t>
-  </si>
-  <si>
-    <t>target_profile_SMG7-AS1</t>
-  </si>
-  <si>
-    <t>/target/ENSG00000258148</t>
-  </si>
-  <si>
-    <t>target_profile_ENSG00000258148</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000174/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0000174</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000220/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0000220</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000222/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0000222</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000621/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0000621</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000637/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0000637</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0002939/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0002939</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0005047/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0005047</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0007591/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0007591</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0010227/associations</t>
-  </si>
-  <si>
-    <t>disease_association_EFO_0010227</t>
+    <t>/disease/EFO_1000346/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_1000346</t>
+  </si>
+  <si>
+    <t>/disease/EFO_1000872/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_1000872</t>
+  </si>
+  <si>
+    <t>/disease/EFO_1002008/associations</t>
+  </si>
+  <si>
+    <t>disease_association_EFO_1002008</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0002350/associations</t>
+  </si>
+  <si>
+    <t>disease_association_MONDO_0002350</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0003869/associations</t>
+  </si>
+  <si>
+    <t>disease_association_MONDO_0003869</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0016680/associations</t>
+  </si>
+  <si>
+    <t>disease_association_MONDO_0016680</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0019004/associations</t>
+  </si>
+  <si>
+    <t>disease_association_MONDO_0019004</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0030105/associations</t>
+  </si>
+  <si>
+    <t>disease_association_MONDO_0030105</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0017568/associations</t>
+  </si>
+  <si>
+    <t>disease_association_Orphanet_2956</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0019249/associations</t>
+  </si>
+  <si>
+    <t>disease_association_Orphanet_584</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0013777/associations</t>
+  </si>
+  <si>
+    <t>disease_association_Orphanet_88939</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000174</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0000174</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000220</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0000220</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000222</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0000222</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000621</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0000621</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0000637</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0000637</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0002939</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0002939</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0005047</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0005047</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0007591</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0007591</t>
+  </si>
+  <si>
+    <t>/disease/EFO_0010227</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_0010227</t>
+  </si>
+  <si>
+    <t>/disease/EFO_1000346</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_1000346</t>
+  </si>
+  <si>
+    <t>/disease/EFO_1000872</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_1000872</t>
+  </si>
+  <si>
+    <t>/disease/EFO_1002008</t>
+  </si>
+  <si>
+    <t>disease_profile_EFO_1002008</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0002350</t>
+  </si>
+  <si>
+    <t>disease_profile_MONDO_0002350</t>
+  </si>
+  <si>
+    <t>/disease/MONDO_0003869</t>
+  </si>
+  <si>
+    <t>disease_profile_MONDO_0003869</t>
   </si>
 </sst>
 </file>
@@ -217,7 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -624,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -638,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -652,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -666,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -721,6 +751,9 @@
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -873,13 +906,83 @@
         <v>44</v>
       </c>
       <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2:A21" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{F612DF97-2925-4AC8-8A7E-0EB2F28BCEFB}"/>
+    <hyperlink ref="A2:A26" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{54C4B10B-2DC2-4AA8-9132-953803FF6F8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/MTP_TEST_SHEET/test_cases_1-10.xlsx
+++ b/MTP_TEST_SHEET/test_cases_1-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC74CD67-2EBA-4293-A817-17566C06E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F199EC3B-76C2-4D21-8002-4BD3BE35C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>suffixUrl</t>
   </si>
@@ -111,96 +111,6 @@
   </si>
   <si>
     <t>disease_association_Orphanet_584</t>
-  </si>
-  <si>
-    <t>/disease/MONDO_0013777/associations</t>
-  </si>
-  <si>
-    <t>disease_association_Orphanet_88939</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000174</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0000174</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000220</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0000220</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000222</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0000222</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000621</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0000621</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000637</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0000637</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0002939</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0002939</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0005047</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0005047</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0007591</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0007591</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0010227</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_0010227</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000346</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_1000346</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000872</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_1000872</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1002008</t>
-  </si>
-  <si>
-    <t>disease_profile_EFO_1002008</t>
-  </si>
-  <si>
-    <t>/disease/MONDO_0002350</t>
-  </si>
-  <si>
-    <t>disease_profile_MONDO_0002350</t>
-  </si>
-  <si>
-    <t>/disease/MONDO_0003869</t>
-  </si>
-  <si>
-    <t>disease_profile_MONDO_0003869</t>
   </si>
 </sst>
 </file>
@@ -602,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -769,220 +679,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2:A26" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{54C4B10B-2DC2-4AA8-9132-953803FF6F8F}"/>
+    <hyperlink ref="A2:A11" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{54C4B10B-2DC2-4AA8-9132-953803FF6F8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/MTP_TEST_SHEET/test_cases_1-10.xlsx
+++ b/MTP_TEST_SHEET/test_cases_1-10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\active-testing-v2\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F199EC3B-76C2-4D21-8002-4BD3BE35C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E16006-E360-4444-AFBB-AF71FFD6B5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Compeleteness</t>
   </si>
   <si>
-    <t>https://ccdi-opentargets-dev.bento-tools.org</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000346/associations</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>disease_association_Orphanet_584</t>
+  </si>
+  <si>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov/</t>
   </si>
 </sst>
 </file>
@@ -514,18 +514,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -539,141 +539,141 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -681,10 +681,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2:A11" r:id="rId1" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{54C4B10B-2DC2-4AA8-9132-953803FF6F8F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>